--- a/experiment-results/Resource usage comparison.xlsx
+++ b/experiment-results/Resource usage comparison.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A405675\Documents\MStuff\sample-user-api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A405675\Documents\MStuff\sample-user-api\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A78CA9-2E4A-494B-B4FE-23F81ED624EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA37EE9-4BAF-4CF9-96B0-F6ED3CDF73B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28035" windowHeight="18195" xr2:uid="{C7EABF18-B918-4A70-AC0B-F94DB8C3C9BA}"/>
   </bookViews>
@@ -98,10 +98,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,11 +154,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Classic - Resource</a:t>
+              <a:t>example-classic - Resource</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Usage</a:t>
+              <a:t> Utilization</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -2095,11 +2095,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Reactive</a:t>
+              <a:t>example-reactive</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - Resource Usage</a:t>
+              <a:t> - Resource Utilization</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6945,7 +6945,7 @@
   <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V55" sqref="V55"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6955,37 +6955,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
         <v>26.26</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D4:D8)</f>
         <v>32.908000000000001</v>
       </c>
       <c r="G8">
@@ -7203,7 +7203,7 @@
         <v>27.18</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D7:D11)</f>
         <v>28.744</v>
       </c>
       <c r="G11">

--- a/experiment-results/Resource usage comparison.xlsx
+++ b/experiment-results/Resource usage comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A405675\Documents\MStuff\sample-user-api\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA37EE9-4BAF-4CF9-96B0-F6ED3CDF73B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC2959B-5CA3-407E-A489-BD6AEF48E96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28035" windowHeight="18195" xr2:uid="{C7EABF18-B918-4A70-AC0B-F94DB8C3C9BA}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="20880" windowHeight="13222" xr2:uid="{C7EABF18-B918-4A70-AC0B-F94DB8C3C9BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats classic" sheetId="1" r:id="rId1"/>
@@ -6543,7 +6543,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>

--- a/experiment-results/Resource usage comparison.xlsx
+++ b/experiment-results/Resource usage comparison.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A405675\Documents\MStuff\sample-user-api\experiment-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC2959B-5CA3-407E-A489-BD6AEF48E96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545301FF-39EB-4B42-9197-E7EF2056AC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="20880" windowHeight="13222" xr2:uid="{C7EABF18-B918-4A70-AC0B-F94DB8C3C9BA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28035" windowHeight="18195" activeTab="1" xr2:uid="{C7EABF18-B918-4A70-AC0B-F94DB8C3C9BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats classic" sheetId="1" r:id="rId1"/>
+    <sheet name="Report Resources" sheetId="1" r:id="rId1"/>
+    <sheet name="Report times" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t xml:space="preserve">CPU % </t>
   </si>
@@ -53,6 +54,18 @@
   </si>
   <si>
     <t>Delta</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Min (ms)</t>
+  </si>
+  <si>
+    <t>Max (ms)</t>
+  </si>
+  <si>
+    <t>Median (ms)</t>
   </si>
 </sst>
 </file>
@@ -204,7 +217,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stats classic'!$A$2</c:f>
+              <c:f>'Report Resources'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -229,7 +242,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Stats classic'!$A$3:$A$160</c:f>
+              <c:f>'Report Resources'!$A$3:$A$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="158"/>
@@ -722,7 +735,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stats classic'!$B$2</c:f>
+              <c:f>'Report Resources'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -745,7 +758,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Stats classic'!$B$3:$B$160</c:f>
+              <c:f>'Report Resources'!$B$3:$B$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="158"/>
@@ -1238,7 +1251,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stats classic'!$C$2</c:f>
+              <c:f>'Report Resources'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1261,7 +1274,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Stats classic'!$C$3:$C$160</c:f>
+              <c:f>'Report Resources'!$C$3:$C$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="158"/>
@@ -2144,7 +2157,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stats classic'!$D$2</c:f>
+              <c:f>'Report Resources'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2169,7 +2182,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Stats classic'!$D$3:$D$160</c:f>
+              <c:f>'Report Resources'!$D$3:$D$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="158"/>
@@ -2662,7 +2675,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stats classic'!$E$2</c:f>
+              <c:f>'Report Resources'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2685,7 +2698,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Stats classic'!$E$3:$E$160</c:f>
+              <c:f>'Report Resources'!$E$3:$E$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="158"/>
@@ -3178,7 +3191,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stats classic'!$F$2</c:f>
+              <c:f>'Report Resources'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3201,7 +3214,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Stats classic'!$F$3:$F$160</c:f>
+              <c:f>'Report Resources'!$F$3:$F$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="158"/>
@@ -3810,6 +3823,7 @@
         <c:axId val="891817120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4086,7 +4100,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stats classic'!$G$1</c:f>
+              <c:f>'Report Resources'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -4104,7 +4118,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Stats classic'!$G$2:$G$160</c:f>
+              <c:f>'Report Resources'!$G$2:$G$160</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="159"/>
@@ -4875,6 +4889,415 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Http Response Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Report times'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reactive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Report times'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min (ms)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max (ms)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Median (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Report times'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-943F-409D-8694-67E1903D3CB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Report times'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Report times'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Min (ms)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Max (ms)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Median (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Report times'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-943F-409D-8694-67E1903D3CB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="52957696"/>
+        <c:axId val="52959360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52957696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52959360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52959360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52957696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4956,6 +5379,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6532,6 +6995,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6637,6 +7605,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102393</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDB1C7A-2E5E-EC11-3CD5-D29854476BD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6944,8 +7953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CB05EF-A1C7-4092-BE5A-ADA3CDDC6BAF}">
   <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11097,4 +12106,66 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5863B45D-BCB9-46F3-B3B9-2F971772ACD3}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>158</v>
+      </c>
+      <c r="C2">
+        <v>24954</v>
+      </c>
+      <c r="D2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>158</v>
+      </c>
+      <c r="C3">
+        <v>75438</v>
+      </c>
+      <c r="D3">
+        <v>1720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>